--- a/2013B/附件4/英文碎片分类.xlsx
+++ b/2013B/附件4/英文碎片分类.xlsx
@@ -14,27 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>deta255(13,2)=inf;deta255(13,14)=inf;deta255(17,14)=inf;deta255(18,17)=0;deta255(12,3)=0;deta255(14,5)=0;</t>
-  </si>
-  <si>
-    <t>deta255(5,11)=0;deta255(5,19)=inf;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>deta255(3,11)=0;deta255(13,9)=0;</t>
   </si>
   <si>
     <t>deta255(1,4)=0</t>
-  </si>
-  <si>
-    <t>deta255(20,17)=0;deta255(31,32)=0;deta255(28,38)=0;deta255(7,34)=0;</t>
-  </si>
-  <si>
-    <t>deta255(6,18)=0;deta255(13,15)=0;deta255(1,2)=inf;</t>
-  </si>
-  <si>
-    <t>deta255(7,16)=0;</t>
   </si>
   <si>
     <t>deta255(23,29)=0;deta255(4,34)=0;deta255(34,22)=0;deta255(2,18)=0;</t>
@@ -60,8 +45,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deta255(16,32)=inf;deta255(25,18)=0;deta255(20,32)=inf;deta255(20,29)=0;deta255(6,12)=0;deta255(12,32)=inf;</t>
+    <t>第二个38的剩余</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个38的剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deta255(5,11)=0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deta255(7,16)=0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deta255(16,32)=inf;deta255(25,18)=0;deta255(20,32)=inf;deta255(20,29)=0;deta255(6,12)=0;deta255(12,32)=inf;deta255(26,35)=0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deta255(6,18)=0;deta255(13,15)=0;deta255(1,2)=inf;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deta255(20,17)=0;deta255(31,32)=0;deta255(28,38)=0;deta255(7,34)=0;deta255(25,37)=0;deta255(32,34)=0;deta255(20,21)=inf;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deta255(18,17)=0;deta255(12,3)=0;deta255(14,5)=0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deta255(13,2)=inf;deta255(13,14)=inf;deta255(17,14)=inf;</t>
   </si>
 </sst>
 </file>
@@ -410,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AL47"/>
+  <dimension ref="A2:AM47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -421,12 +437,12 @@
     <col min="1" max="1" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>192</v>
       </c>
@@ -484,8 +500,14 @@
       <c r="S3">
         <v>205</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>209</v>
       </c>
@@ -544,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>147</v>
       </c>
@@ -602,8 +624,11 @@
       <c r="S5">
         <v>202</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>71</v>
       </c>
@@ -661,10 +686,13 @@
       <c r="S6">
         <v>196</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -712,7 +740,7 @@
         <v>70</v>
       </c>
       <c r="Q7">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="R7">
         <v>93</v>
@@ -777,8 +805,11 @@
       <c r="AL7">
         <v>207</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -893,8 +924,11 @@
       <c r="AL8">
         <v>206</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1009,8 +1043,11 @@
       <c r="AL9">
         <v>204</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -1068,20 +1105,26 @@
       <c r="S10">
         <v>208</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -1117,7 +1160,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1175,11 +1218,8 @@
       <c r="S19">
         <v>83</v>
       </c>
-      <c r="T19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1237,11 +1277,8 @@
       <c r="S20">
         <v>144</v>
       </c>
-      <c r="T20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>71</v>
       </c>
@@ -1299,11 +1336,8 @@
       <c r="S21">
         <v>110</v>
       </c>
-      <c r="T21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>82</v>
       </c>
@@ -1361,11 +1395,8 @@
       <c r="S22">
         <v>116</v>
       </c>
-      <c r="T22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>87</v>
       </c>
@@ -1424,10 +1455,13 @@
         <v>128</v>
       </c>
       <c r="T23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>133</v>
       </c>
@@ -1485,11 +1519,8 @@
       <c r="S24">
         <v>179</v>
       </c>
-      <c r="T24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>160</v>
       </c>
@@ -1548,7 +1579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>172</v>
       </c>
@@ -1607,10 +1638,13 @@
         <v>45</v>
       </c>
       <c r="T26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>192</v>
       </c>
@@ -1668,11 +1702,8 @@
       <c r="S27">
         <v>148</v>
       </c>
-      <c r="T27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>202</v>
       </c>
@@ -1730,11 +1761,8 @@
       <c r="S28">
         <v>147</v>
       </c>
-      <c r="T28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>209</v>
       </c>
@@ -1795,7 +1823,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
